--- a/data/trans_orig/P41C1_AOS_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41C1_AOS_2023_R-Edad-trans_orig.xlsx
@@ -563,10 +563,10 @@
         <v>0.8563600602522953</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>1.002031546790579</v>
+        <v>1.002031546790578</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9189245053281165</v>
+        <v>0.9189245053281168</v>
       </c>
     </row>
     <row r="5">
@@ -580,10 +580,10 @@
         <v>0.25</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3416106390415931</v>
+        <v>0.2797938631676016</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5594450382139895</v>
+        <v>0.5341594474258293</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.617074018312025</v>
+        <v>2.520025921795242</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.742324673091721</v>
+        <v>1.830046213094667</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>2.721669979215835</v>
+        <v>2.721669979215836</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>2.537996420692926</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2.622822538352018</v>
+        <v>2.622822538352019</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.887478370572478</v>
+        <v>1.851082006890173</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.904758246790745</v>
+        <v>1.890467372208695</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.038070483597964</v>
+        <v>2.154504189477112</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.557346229952504</v>
+        <v>3.511128079660843</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.282368526421567</v>
+        <v>3.378914528233611</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.141840733916338</v>
+        <v>3.242412252390895</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>4.390525776239223</v>
+        <v>4.390525776239222</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>5.394418436346528</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.488747575094214</v>
+        <v>2.555182120693308</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.348483106441276</v>
+        <v>3.418462920043549</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.412172465174967</v>
+        <v>3.21856213701988</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.978949539096957</v>
+        <v>7.510969943135774</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.358109595413442</v>
+        <v>8.5359778337486</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.041962687183968</v>
+        <v>6.738346579431539</v>
       </c>
     </row>
     <row r="13">
@@ -728,10 +728,10 @@
         <v>2.93362312337045</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>3.394675804106369</v>
+        <v>3.394675804106368</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3.168325397167558</v>
+        <v>3.168325397167559</v>
       </c>
     </row>
     <row r="14">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.006168497700266</v>
+        <v>1.984211764405174</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.436036424404034</v>
+        <v>2.488965177101705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.461300903707347</v>
+        <v>2.431437999789246</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.486115380737616</v>
+        <v>4.594934039184221</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.896920965576298</v>
+        <v>5.024845010256515</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.156259457898665</v>
+        <v>4.286037512241818</v>
       </c>
     </row>
     <row r="16">
